--- a/For Slide Show submission-29th April 2018.xlsx
+++ b/For Slide Show submission-29th April 2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Praveen\source\repos\Gamut.UI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praveen\source\repos\Gamut.UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{283D9AA4-87EA-4367-92AD-F62C99B80C13}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32571A64-DB84-47E5-B654-17977A610C8A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="Reports" sheetId="16" r:id="rId16"/>
     <sheet name="Account Details" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -8664,36 +8664,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8709,24 +8698,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -8735,52 +8757,27 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -8794,15 +8791,8 @@
     <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8810,16 +8800,18 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8833,6 +8825,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8842,8 +8839,11 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -8854,8 +8854,32 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8863,31 +8887,19 @@
     <xf numFmtId="0" fontId="33" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -8895,12 +8907,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -8912,59 +8918,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8972,15 +8984,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8992,16 +8995,13 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9378,17 +9378,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -9417,11 +9417,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -9442,10 +9442,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -9462,60 +9462,60 @@
     <row r="6" spans="1:10">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="112"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="101" t="s">
+      <c r="D8" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="104"/>
       <c r="F8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="101" t="s">
+      <c r="G8" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="99"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="102"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="21" t="s">
         <v>41</v>
       </c>
@@ -9530,17 +9530,17 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="31" t="s">
         <v>58</v>
       </c>
@@ -9550,15 +9550,15 @@
       <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="107"/>
-      <c r="E11" s="102"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="31" t="s">
         <v>66</v>
       </c>
@@ -9568,17 +9568,17 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="102"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="31" t="s">
         <v>71</v>
       </c>
@@ -9588,15 +9588,15 @@
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="31" t="s">
         <v>75</v>
       </c>
@@ -9606,17 +9606,17 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="31" t="s">
         <v>77</v>
       </c>
@@ -9626,17 +9626,17 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="107" t="s">
+      <c r="D15" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="102"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="31" t="s">
         <v>83</v>
       </c>
@@ -9646,10 +9646,10 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="20" t="s">
         <v>84</v>
       </c>
@@ -9668,10 +9668,10 @@
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="20" t="s">
         <v>101</v>
       </c>
@@ -9686,14 +9686,14 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="100" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="116" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="45" t="s">
         <v>109</v>
       </c>
@@ -9704,41 +9704,41 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10" ht="18">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="D19" s="98" t="s">
+      <c r="D19" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="G19" s="120" t="s">
+      <c r="G19" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="99"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="46" t="s">
         <v>114</v>
       </c>
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="119" t="s">
+      <c r="D20" s="105" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="99"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -9746,17 +9746,17 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D21" s="109" t="s">
+      <c r="D21" s="106" t="s">
         <v>118</v>
       </c>
-      <c r="E21" s="99"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="38" t="s">
         <v>120</v>
       </c>
@@ -9770,17 +9770,17 @@
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="110" t="s">
+      <c r="D22" s="107" t="s">
         <v>128</v>
       </c>
-      <c r="E22" s="99"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="38" t="s">
         <v>120</v>
       </c>
@@ -9794,10 +9794,10 @@
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="20" t="s">
         <v>132</v>
       </c>
@@ -9845,10 +9845,10 @@
       <c r="C25" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="E25" s="99"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="38" t="s">
         <v>138</v>
       </c>
@@ -9862,11 +9862,11 @@
       <c r="J25" s="26"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="C26" s="116" t="s">
+      <c r="C26" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="99"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="38" t="s">
         <v>138</v>
       </c>
@@ -10855,6 +10855,28 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="D5:E5"/>
@@ -10866,33 +10888,11 @@
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="C6:I7"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="G19:H19"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="C18:D18"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="portrait"/>
@@ -10904,7 +10904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10921,17 +10923,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -10960,11 +10962,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -10985,10 +10987,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -11007,10 +11009,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -11025,16 +11027,16 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40" t="s">
         <v>203</v>
       </c>
@@ -11044,10 +11046,10 @@
       <c r="E9" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="F9" s="149" t="s">
+      <c r="F9" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="99"/>
+      <c r="G9" s="97"/>
       <c r="H9" s="40" t="s">
         <v>206</v>
       </c>
@@ -11056,91 +11058,91 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="181" t="s">
         <v>207</v>
       </c>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="182" t="s">
         <v>78</v>
       </c>
       <c r="E10" s="181"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="153"/>
+      <c r="F10" s="191"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="181" t="s">
         <v>210</v>
       </c>
-      <c r="I10" s="180" t="s">
+      <c r="I10" s="185" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="155"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="147"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="147"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="157"/>
-      <c r="H13" s="126"/>
-      <c r="I13" s="126"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="74" t="s">
         <v>215</v>
       </c>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="99"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="97"/>
       <c r="H14" s="40"/>
       <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="D16" s="20" t="s">
         <v>218</v>
       </c>
@@ -11150,100 +11152,100 @@
       <c r="F16" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="148" t="s">
+      <c r="G16" s="149" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="97"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="186" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="188" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="187" t="s">
+      <c r="D17" s="189" t="s">
         <v>213</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="171" t="s">
+      <c r="F17" s="179" t="s">
         <v>234</v>
       </c>
-      <c r="G17" s="152"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="153"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="157"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="155"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="109"/>
+      <c r="I18" s="159"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="156"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="157"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="161"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="D21" s="183" t="s">
+      <c r="D21" s="187" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="99"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="97"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="182" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="186" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="112"/>
+      <c r="D22" s="109"/>
       <c r="E22" s="79" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="C24" s="40" t="s">
@@ -11269,46 +11271,46 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="183" t="s">
         <v>257</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="184"/>
-      <c r="G25" s="184"/>
-      <c r="H25" s="184" t="s">
+      <c r="D25" s="184"/>
+      <c r="E25" s="183"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="183"/>
+      <c r="H25" s="183" t="s">
         <v>213</v>
       </c>
-      <c r="I25" s="180" t="s">
+      <c r="I25" s="185" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C26" s="147"/>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
+      <c r="C26" s="151"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C27" s="147"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
+      <c r="C27" s="151"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C28" s="126"/>
-      <c r="D28" s="126"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="126"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="126"/>
-      <c r="I28" s="126"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="C29" s="74" t="s">
@@ -11316,8 +11318,8 @@
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="99"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="97"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
     </row>
@@ -12294,22 +12296,18 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F25:F28"/>
-    <mergeCell ref="G25:G28"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="E25:E28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="E10:E13"/>
@@ -12326,18 +12324,22 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="F10:G13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F25:F28"/>
+    <mergeCell ref="G25:G28"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -12366,17 +12368,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1"/>
@@ -12405,11 +12407,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -12430,10 +12432,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -12452,10 +12454,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -12470,20 +12472,20 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="100"/>
       <c r="E9" s="70" t="s">
         <v>211</v>
       </c>
@@ -12501,14 +12503,14 @@
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="191" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="192" t="s">
         <v>214</v>
       </c>
-      <c r="D10" s="99"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="51" t="s">
         <v>19</v>
       </c>
@@ -12521,14 +12523,14 @@
       <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="191" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="192" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="99"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="51" t="s">
         <v>225</v>
       </c>
@@ -12541,14 +12543,14 @@
       <c r="H11" s="75"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="191" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="192" t="s">
         <v>227</v>
       </c>
-      <c r="D12" s="99"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="20" t="s">
         <v>228</v>
       </c>
@@ -12560,14 +12562,14 @@
       </c>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="191" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="192" t="s">
         <v>230</v>
       </c>
-      <c r="D13" s="99"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="20" t="s">
         <v>228</v>
       </c>
@@ -12579,14 +12581,14 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="191" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="192" t="s">
         <v>231</v>
       </c>
-      <c r="D14" s="99"/>
+      <c r="D14" s="97"/>
       <c r="E14" s="20" t="s">
         <v>228</v>
       </c>
@@ -12598,14 +12600,14 @@
       </c>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="191" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="192" t="s">
         <v>233</v>
       </c>
-      <c r="D15" s="99"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="20" t="s">
         <v>228</v>
       </c>
@@ -12619,14 +12621,14 @@
       <c r="N15" s="26"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="191" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="192" t="s">
         <v>239</v>
       </c>
-      <c r="D16" s="99"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="20" t="s">
         <v>228</v>
       </c>
@@ -12639,14 +12641,14 @@
       <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="104" t="s">
+      <c r="A17" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="D17" s="99"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="20" t="s">
         <v>228</v>
       </c>
@@ -12658,14 +12660,14 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="191" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="192" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="20" t="s">
         <v>242</v>
       </c>
@@ -12677,14 +12679,14 @@
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="191" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="20" t="s">
         <v>242</v>
       </c>
@@ -12696,14 +12698,14 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="191" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="51" t="s">
         <v>228</v>
       </c>
@@ -12716,14 +12718,14 @@
       <c r="H20" s="75"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="191" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="99"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="51" t="s">
         <v>258</v>
       </c>
@@ -12736,14 +12738,14 @@
       <c r="H21" s="75"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="191" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="192" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="99"/>
+      <c r="D22" s="97"/>
       <c r="E22" s="51" t="s">
         <v>228</v>
       </c>
@@ -12758,14 +12760,14 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="191" t="s">
+      <c r="B23" s="100"/>
+      <c r="C23" s="192" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="99"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="51" t="s">
         <v>264</v>
       </c>
@@ -12778,10 +12780,10 @@
       <c r="H23" s="75"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C24" s="191" t="s">
+      <c r="C24" s="192" t="s">
         <v>265</v>
       </c>
-      <c r="D24" s="99"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="51" t="s">
         <v>228</v>
       </c>
@@ -12796,10 +12798,10 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C25" s="191" t="s">
+      <c r="C25" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="51" t="s">
         <v>266</v>
       </c>
@@ -12812,10 +12814,10 @@
       <c r="H25" s="75"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C26" s="191" t="s">
+      <c r="C26" s="192" t="s">
         <v>267</v>
       </c>
-      <c r="D26" s="99"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="51" t="s">
         <v>228</v>
       </c>
@@ -12830,10 +12832,10 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C27" s="191" t="s">
+      <c r="C27" s="192" t="s">
         <v>269</v>
       </c>
-      <c r="D27" s="99"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="51" t="s">
         <v>270</v>
       </c>
@@ -12846,10 +12848,10 @@
       <c r="H27" s="75"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C28" s="191" t="s">
+      <c r="C28" s="192" t="s">
         <v>271</v>
       </c>
-      <c r="D28" s="99"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="51" t="s">
         <v>228</v>
       </c>
@@ -12864,10 +12866,10 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="194" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="153"/>
+      <c r="D29" s="157"/>
       <c r="E29" s="80" t="s">
         <v>272</v>
       </c>
@@ -12880,10 +12882,10 @@
       <c r="H29" s="75"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="99"/>
+      <c r="D30" s="97"/>
       <c r="E30" s="38" t="s">
         <v>273</v>
       </c>
@@ -12899,10 +12901,10 @@
       <c r="I30" s="82"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
-      <c r="C31" s="191" t="s">
+      <c r="C31" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="D31" s="99"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="51" t="s">
         <v>19</v>
       </c>
@@ -13887,12 +13889,27 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A7:B7"/>
@@ -13909,27 +13926,12 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -13958,17 +13960,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -13997,11 +13999,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -14022,10 +14024,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -14044,10 +14046,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -14062,16 +14064,16 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="75" t="s">
         <v>279</v>
       </c>
@@ -14081,19 +14083,19 @@
       <c r="E9" s="195" t="s">
         <v>280</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="109"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="85" t="s">
         <v>129</v>
       </c>
@@ -14117,196 +14119,196 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="185" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="185"/>
-      <c r="E12" s="185" t="s">
+      <c r="D12" s="184"/>
+      <c r="E12" s="184" t="s">
         <v>285</v>
       </c>
-      <c r="F12" s="185" t="s">
+      <c r="F12" s="184" t="s">
         <v>286</v>
       </c>
-      <c r="G12" s="194" t="s">
+      <c r="G12" s="196" t="s">
         <v>288</v>
       </c>
-      <c r="H12" s="185" t="s">
+      <c r="H12" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="I12" s="185">
+      <c r="I12" s="184">
         <v>12898</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="190" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="190"/>
-      <c r="E16" s="190" t="s">
+      <c r="D16" s="182"/>
+      <c r="E16" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="G16" s="180" t="s">
+      <c r="G16" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="190" t="s">
+      <c r="H16" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="I16" s="190">
+      <c r="I16" s="182">
         <v>12898</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="104" t="s">
+      <c r="A18" s="118" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="126"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="126"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="123"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="123"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="123"/>
+      <c r="I19" s="123"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="190" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="182" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="190"/>
-      <c r="E20" s="190" t="s">
+      <c r="D20" s="182"/>
+      <c r="E20" s="182" t="s">
         <v>285</v>
       </c>
-      <c r="F20" s="190" t="s">
+      <c r="F20" s="182" t="s">
         <v>286</v>
       </c>
-      <c r="G20" s="180" t="s">
+      <c r="G20" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="H20" s="190" t="s">
+      <c r="H20" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="I20" s="190">
+      <c r="I20" s="182">
         <v>12898</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="151"/>
+      <c r="G21" s="151"/>
+      <c r="H21" s="151"/>
+      <c r="I21" s="151"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="151"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="151"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="126"/>
-      <c r="D23" s="126"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="126"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="126"/>
-      <c r="I23" s="126"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -15287,26 +15289,12 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="I16:I19"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="I20:I23"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A17:B17"/>
@@ -15323,12 +15311,26 @@
     <mergeCell ref="H20:H23"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="I16:I19"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="D16:D19"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="F12:F15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -15357,17 +15359,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -15396,11 +15398,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -15421,10 +15423,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -15441,15 +15443,15 @@
     <row r="6" spans="1:9">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
-      <c r="H6" s="198" t="s">
+      <c r="H6" s="199" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -15468,44 +15470,44 @@
       <c r="H7" s="197"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="H8" s="123"/>
+      <c r="B8" s="100"/>
+      <c r="H8" s="131"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="124" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="D9" s="124" t="s">
+      <c r="D9" s="132" t="s">
         <v>289</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="F9" s="124" t="s">
+      <c r="F9" s="132" t="s">
         <v>291</v>
       </c>
-      <c r="G9" s="124" t="s">
+      <c r="G9" s="132" t="s">
         <v>292</v>
       </c>
-      <c r="H9" s="124" t="s">
+      <c r="H9" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="I9" s="136" t="s">
+      <c r="I9" s="134" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="197"/>
       <c r="D10" s="197"/>
       <c r="E10" s="197"/>
@@ -15515,167 +15517,167 @@
       <c r="I10" s="197"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="199" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="200" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196" t="s">
+      <c r="D12" s="198"/>
+      <c r="E12" s="198" t="s">
         <v>295</v>
       </c>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196" t="s">
+      <c r="F12" s="198"/>
+      <c r="G12" s="198"/>
+      <c r="H12" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="196" t="s">
+      <c r="I12" s="198" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="151"/>
+      <c r="I17" s="151"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="151"/>
+      <c r="H18" s="151"/>
+      <c r="I18" s="151"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="104" t="s">
+      <c r="A19" s="118" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="151"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="147"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="151"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="151"/>
+      <c r="G20" s="151"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="151"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -16656,11 +16658,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="G12:G21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E21"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="I12:I21"/>
     <mergeCell ref="F12:F21"/>
     <mergeCell ref="I9:I11"/>
@@ -16677,20 +16685,14 @@
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="H9:H11"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
-    <mergeCell ref="G12:G21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="E12:E21"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -16720,17 +16722,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
@@ -16759,11 +16761,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -16784,10 +16786,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -16806,10 +16808,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -16830,21 +16832,21 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:11" ht="30">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="210" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="206" t="s">
         <v>297</v>
       </c>
-      <c r="D9" s="211"/>
-      <c r="E9" s="212"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="208"/>
       <c r="F9" s="89" t="s">
         <v>304</v>
       </c>
@@ -16854,1327 +16856,1327 @@
       <c r="H9" s="213" t="s">
         <v>308</v>
       </c>
-      <c r="I9" s="212"/>
+      <c r="I9" s="208"/>
       <c r="J9" s="90" t="s">
         <v>309</v>
       </c>
       <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="200" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="205" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="201"/>
+      <c r="D10" s="209"/>
       <c r="E10" s="202"/>
-      <c r="F10" s="209" t="s">
+      <c r="F10" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G10" s="207" t="s">
+      <c r="G10" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H10" s="206"/>
+      <c r="H10" s="201"/>
       <c r="I10" s="202"/>
-      <c r="J10" s="200" t="s">
+      <c r="J10" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="203"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="208"/>
-      <c r="G11" s="208"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="212"/>
       <c r="H11" s="203"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="154"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="200" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="205" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="201"/>
+      <c r="D12" s="209"/>
       <c r="E12" s="202"/>
-      <c r="F12" s="209" t="s">
+      <c r="F12" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G12" s="207" t="s">
+      <c r="G12" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H12" s="206"/>
+      <c r="H12" s="201"/>
       <c r="I12" s="202"/>
-      <c r="J12" s="200" t="s">
+      <c r="J12" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="203"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="212"/>
       <c r="H13" s="203"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="154"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="200" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="205" t="s">
         <v>325</v>
       </c>
-      <c r="D14" s="201"/>
+      <c r="D14" s="209"/>
       <c r="E14" s="202"/>
-      <c r="F14" s="209" t="s">
+      <c r="F14" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G14" s="207" t="s">
+      <c r="G14" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H14" s="206"/>
+      <c r="H14" s="201"/>
       <c r="I14" s="202"/>
-      <c r="J14" s="200" t="s">
+      <c r="J14" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="203"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
+      <c r="D15" s="210"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="212"/>
+      <c r="G15" s="212"/>
       <c r="H15" s="203"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="154"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="200" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="205" t="s">
         <v>326</v>
       </c>
-      <c r="D16" s="201"/>
+      <c r="D16" s="209"/>
       <c r="E16" s="202"/>
-      <c r="F16" s="209" t="s">
+      <c r="F16" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G16" s="207" t="s">
+      <c r="G16" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H16" s="206"/>
+      <c r="H16" s="201"/>
       <c r="I16" s="202"/>
-      <c r="J16" s="200" t="s">
+      <c r="J16" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="203"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="204"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="203"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="154"/>
+      <c r="I17" s="204"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="200" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="205" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="201"/>
+      <c r="D18" s="209"/>
       <c r="E18" s="202"/>
-      <c r="F18" s="209" t="s">
+      <c r="F18" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G18" s="207" t="s">
+      <c r="G18" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H18" s="206"/>
+      <c r="H18" s="201"/>
       <c r="I18" s="202"/>
-      <c r="J18" s="200" t="s">
+      <c r="J18" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="203"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="203"/>
-      <c r="I19" s="205"/>
-      <c r="J19" s="154"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="104" t="s">
+      <c r="A20" s="118" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="200" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="205" t="s">
         <v>332</v>
       </c>
-      <c r="D20" s="201"/>
+      <c r="D20" s="209"/>
       <c r="E20" s="202"/>
-      <c r="F20" s="209" t="s">
+      <c r="F20" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="207" t="s">
+      <c r="G20" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H20" s="206"/>
+      <c r="H20" s="201"/>
       <c r="I20" s="202"/>
-      <c r="J20" s="200" t="s">
+      <c r="J20" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="203"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
+      <c r="D21" s="210"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="203"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="154"/>
+      <c r="I21" s="204"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="200" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="205" t="s">
         <v>335</v>
       </c>
-      <c r="D22" s="201"/>
+      <c r="D22" s="209"/>
       <c r="E22" s="202"/>
-      <c r="F22" s="209" t="s">
+      <c r="F22" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G22" s="207" t="s">
+      <c r="G22" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H22" s="206"/>
+      <c r="H22" s="201"/>
       <c r="I22" s="202"/>
-      <c r="J22" s="200" t="s">
+      <c r="J22" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="203"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="208"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="204"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="203"/>
-      <c r="I23" s="205"/>
-      <c r="J23" s="154"/>
+      <c r="I23" s="204"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C24" s="200" t="s">
+      <c r="C24" s="205" t="s">
         <v>336</v>
       </c>
-      <c r="D24" s="201"/>
+      <c r="D24" s="209"/>
       <c r="E24" s="202"/>
-      <c r="F24" s="209" t="s">
+      <c r="F24" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="207" t="s">
+      <c r="G24" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H24" s="206"/>
+      <c r="H24" s="201"/>
       <c r="I24" s="202"/>
-      <c r="J24" s="200" t="s">
+      <c r="J24" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="C25" s="203"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="208"/>
-      <c r="G25" s="208"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="203"/>
-      <c r="I25" s="205"/>
-      <c r="J25" s="154"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C26" s="200" t="s">
+      <c r="C26" s="205" t="s">
         <v>338</v>
       </c>
-      <c r="D26" s="201"/>
+      <c r="D26" s="209"/>
       <c r="E26" s="202"/>
-      <c r="F26" s="209" t="s">
+      <c r="F26" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G26" s="207" t="s">
+      <c r="G26" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H26" s="206"/>
+      <c r="H26" s="201"/>
       <c r="I26" s="202"/>
-      <c r="J26" s="200" t="s">
+      <c r="J26" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="C27" s="203"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
+      <c r="D27" s="210"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="212"/>
+      <c r="G27" s="212"/>
       <c r="H27" s="203"/>
-      <c r="I27" s="205"/>
-      <c r="J27" s="154"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C28" s="200" t="s">
+      <c r="C28" s="205" t="s">
         <v>339</v>
       </c>
-      <c r="D28" s="201"/>
+      <c r="D28" s="209"/>
       <c r="E28" s="202"/>
-      <c r="F28" s="209" t="s">
+      <c r="F28" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G28" s="207" t="s">
+      <c r="G28" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="206"/>
+      <c r="H28" s="201"/>
       <c r="I28" s="202"/>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="C29" s="203"/>
-      <c r="D29" s="204"/>
-      <c r="E29" s="205"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="208"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="204"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="212"/>
       <c r="H29" s="203"/>
-      <c r="I29" s="205"/>
-      <c r="J29" s="154"/>
+      <c r="I29" s="204"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C30" s="200" t="s">
+      <c r="C30" s="205" t="s">
         <v>340</v>
       </c>
-      <c r="D30" s="201"/>
+      <c r="D30" s="209"/>
       <c r="E30" s="202"/>
-      <c r="F30" s="209" t="s">
+      <c r="F30" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="207" t="s">
+      <c r="G30" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H30" s="206"/>
+      <c r="H30" s="201"/>
       <c r="I30" s="202"/>
-      <c r="J30" s="200" t="s">
+      <c r="J30" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="C31" s="203"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
+      <c r="D31" s="210"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="212"/>
+      <c r="G31" s="212"/>
       <c r="H31" s="203"/>
-      <c r="I31" s="205"/>
-      <c r="J31" s="154"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C32" s="200" t="s">
+      <c r="C32" s="205" t="s">
         <v>341</v>
       </c>
-      <c r="D32" s="201"/>
+      <c r="D32" s="209"/>
       <c r="E32" s="202"/>
-      <c r="F32" s="209" t="s">
+      <c r="F32" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G32" s="207" t="s">
+      <c r="G32" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H32" s="206"/>
+      <c r="H32" s="201"/>
       <c r="I32" s="202"/>
-      <c r="J32" s="200" t="s">
+      <c r="J32" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="33" spans="3:10" ht="15.75" customHeight="1">
       <c r="C33" s="203"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
+      <c r="D33" s="210"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="212"/>
+      <c r="G33" s="212"/>
       <c r="H33" s="203"/>
-      <c r="I33" s="205"/>
-      <c r="J33" s="154"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C34" s="200" t="s">
+      <c r="C34" s="205" t="s">
         <v>342</v>
       </c>
-      <c r="D34" s="201"/>
+      <c r="D34" s="209"/>
       <c r="E34" s="202"/>
-      <c r="F34" s="209" t="s">
+      <c r="F34" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G34" s="207" t="s">
+      <c r="G34" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H34" s="206"/>
+      <c r="H34" s="201"/>
       <c r="I34" s="202"/>
-      <c r="J34" s="200" t="s">
+      <c r="J34" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="35" spans="3:10" ht="15.75" customHeight="1">
       <c r="C35" s="203"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="208"/>
-      <c r="G35" s="208"/>
+      <c r="D35" s="210"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="212"/>
+      <c r="G35" s="212"/>
       <c r="H35" s="203"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="154"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="3:10" ht="15.75" customHeight="1">
-      <c r="C36" s="200" t="s">
+      <c r="C36" s="205" t="s">
         <v>343</v>
       </c>
-      <c r="D36" s="201"/>
+      <c r="D36" s="209"/>
       <c r="E36" s="202"/>
-      <c r="F36" s="209" t="s">
+      <c r="F36" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G36" s="207" t="s">
+      <c r="G36" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H36" s="206"/>
+      <c r="H36" s="201"/>
       <c r="I36" s="202"/>
-      <c r="J36" s="200" t="s">
+      <c r="J36" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="37" spans="3:10" ht="15.75" customHeight="1">
       <c r="C37" s="203"/>
-      <c r="D37" s="204"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
       <c r="H37" s="203"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="154"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C38" s="200" t="s">
+      <c r="C38" s="205" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="201"/>
+      <c r="D38" s="209"/>
       <c r="E38" s="202"/>
-      <c r="F38" s="209" t="s">
+      <c r="F38" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="207" t="s">
+      <c r="G38" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H38" s="206"/>
+      <c r="H38" s="201"/>
       <c r="I38" s="202"/>
-      <c r="J38" s="200" t="s">
+      <c r="J38" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="39" spans="3:10" ht="15.75" customHeight="1">
       <c r="C39" s="203"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
+      <c r="D39" s="210"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
       <c r="H39" s="203"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="154"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C40" s="200" t="s">
+      <c r="C40" s="205" t="s">
         <v>345</v>
       </c>
-      <c r="D40" s="201"/>
+      <c r="D40" s="209"/>
       <c r="E40" s="202"/>
-      <c r="F40" s="209" t="s">
+      <c r="F40" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G40" s="207" t="s">
+      <c r="G40" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H40" s="206"/>
+      <c r="H40" s="201"/>
       <c r="I40" s="202"/>
-      <c r="J40" s="200" t="s">
+      <c r="J40" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="41" spans="3:10" ht="15.75" customHeight="1">
       <c r="C41" s="203"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
+      <c r="D41" s="210"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="212"/>
+      <c r="G41" s="212"/>
       <c r="H41" s="203"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="154"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C42" s="200" t="s">
+      <c r="C42" s="205" t="s">
         <v>346</v>
       </c>
-      <c r="D42" s="201"/>
+      <c r="D42" s="209"/>
       <c r="E42" s="202"/>
-      <c r="F42" s="209" t="s">
+      <c r="F42" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G42" s="207" t="s">
+      <c r="G42" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H42" s="206"/>
+      <c r="H42" s="201"/>
       <c r="I42" s="202"/>
-      <c r="J42" s="200" t="s">
+      <c r="J42" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="43" spans="3:10" ht="15.75" customHeight="1">
       <c r="C43" s="203"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="205"/>
-      <c r="F43" s="208"/>
-      <c r="G43" s="208"/>
+      <c r="D43" s="210"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="212"/>
+      <c r="G43" s="212"/>
       <c r="H43" s="203"/>
-      <c r="I43" s="205"/>
-      <c r="J43" s="154"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="158"/>
     </row>
     <row r="44" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C44" s="200" t="s">
+      <c r="C44" s="205" t="s">
         <v>347</v>
       </c>
-      <c r="D44" s="201"/>
+      <c r="D44" s="209"/>
       <c r="E44" s="202"/>
-      <c r="F44" s="209" t="s">
+      <c r="F44" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G44" s="207" t="s">
+      <c r="G44" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H44" s="206"/>
+      <c r="H44" s="201"/>
       <c r="I44" s="202"/>
-      <c r="J44" s="200" t="s">
+      <c r="J44" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="45" spans="3:10" ht="15.75" customHeight="1">
       <c r="C45" s="203"/>
-      <c r="D45" s="204"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="208"/>
-      <c r="G45" s="208"/>
+      <c r="D45" s="210"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="212"/>
+      <c r="G45" s="212"/>
       <c r="H45" s="203"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="154"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="158"/>
     </row>
     <row r="46" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C46" s="200" t="s">
+      <c r="C46" s="205" t="s">
         <v>348</v>
       </c>
-      <c r="D46" s="201"/>
+      <c r="D46" s="209"/>
       <c r="E46" s="202"/>
-      <c r="F46" s="209" t="s">
+      <c r="F46" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="207" t="s">
+      <c r="G46" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H46" s="206"/>
+      <c r="H46" s="201"/>
       <c r="I46" s="202"/>
-      <c r="J46" s="200" t="s">
+      <c r="J46" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="47" spans="3:10" ht="15.75" customHeight="1">
       <c r="C47" s="203"/>
-      <c r="D47" s="204"/>
-      <c r="E47" s="205"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="208"/>
+      <c r="D47" s="210"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="212"/>
+      <c r="G47" s="212"/>
       <c r="H47" s="203"/>
-      <c r="I47" s="205"/>
-      <c r="J47" s="154"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="158"/>
     </row>
     <row r="48" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C48" s="200" t="s">
+      <c r="C48" s="205" t="s">
         <v>349</v>
       </c>
-      <c r="D48" s="201"/>
+      <c r="D48" s="209"/>
       <c r="E48" s="202"/>
-      <c r="F48" s="209" t="s">
+      <c r="F48" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G48" s="207" t="s">
+      <c r="G48" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H48" s="206"/>
+      <c r="H48" s="201"/>
       <c r="I48" s="202"/>
-      <c r="J48" s="200" t="s">
+      <c r="J48" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="49" spans="3:10" ht="15.75" customHeight="1">
       <c r="C49" s="203"/>
-      <c r="D49" s="204"/>
-      <c r="E49" s="205"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="D49" s="210"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
       <c r="H49" s="203"/>
-      <c r="I49" s="205"/>
-      <c r="J49" s="154"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C50" s="200" t="s">
+      <c r="C50" s="205" t="s">
         <v>350</v>
       </c>
-      <c r="D50" s="201"/>
+      <c r="D50" s="209"/>
       <c r="E50" s="202"/>
-      <c r="F50" s="209" t="s">
+      <c r="F50" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G50" s="207" t="s">
+      <c r="G50" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H50" s="206"/>
+      <c r="H50" s="201"/>
       <c r="I50" s="202"/>
-      <c r="J50" s="200" t="s">
+      <c r="J50" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="51" spans="3:10" ht="15.75" customHeight="1">
       <c r="C51" s="203"/>
-      <c r="D51" s="204"/>
-      <c r="E51" s="205"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
+      <c r="D51" s="210"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="212"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="203"/>
-      <c r="I51" s="205"/>
-      <c r="J51" s="154"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="158"/>
     </row>
     <row r="52" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C52" s="200" t="s">
+      <c r="C52" s="205" t="s">
         <v>351</v>
       </c>
-      <c r="D52" s="201"/>
+      <c r="D52" s="209"/>
       <c r="E52" s="202"/>
-      <c r="F52" s="209" t="s">
+      <c r="F52" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G52" s="207" t="s">
+      <c r="G52" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H52" s="206"/>
+      <c r="H52" s="201"/>
       <c r="I52" s="202"/>
-      <c r="J52" s="200" t="s">
+      <c r="J52" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="53" spans="3:10" ht="15.75" customHeight="1">
       <c r="C53" s="203"/>
-      <c r="D53" s="204"/>
-      <c r="E53" s="205"/>
-      <c r="F53" s="208"/>
-      <c r="G53" s="208"/>
+      <c r="D53" s="210"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="212"/>
+      <c r="G53" s="212"/>
       <c r="H53" s="203"/>
-      <c r="I53" s="205"/>
-      <c r="J53" s="154"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="158"/>
     </row>
     <row r="54" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C54" s="200" t="s">
+      <c r="C54" s="205" t="s">
         <v>352</v>
       </c>
-      <c r="D54" s="201"/>
+      <c r="D54" s="209"/>
       <c r="E54" s="202"/>
-      <c r="F54" s="209" t="s">
+      <c r="F54" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G54" s="207" t="s">
+      <c r="G54" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H54" s="206"/>
+      <c r="H54" s="201"/>
       <c r="I54" s="202"/>
-      <c r="J54" s="200" t="s">
+      <c r="J54" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="55" spans="3:10" ht="15.75" customHeight="1">
       <c r="C55" s="203"/>
-      <c r="D55" s="204"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="208"/>
-      <c r="G55" s="208"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="212"/>
       <c r="H55" s="203"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="154"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="158"/>
     </row>
     <row r="56" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C56" s="200" t="s">
+      <c r="C56" s="205" t="s">
         <v>353</v>
       </c>
-      <c r="D56" s="201"/>
+      <c r="D56" s="209"/>
       <c r="E56" s="202"/>
-      <c r="F56" s="209" t="s">
+      <c r="F56" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G56" s="207" t="s">
+      <c r="G56" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H56" s="206"/>
+      <c r="H56" s="201"/>
       <c r="I56" s="202"/>
-      <c r="J56" s="200" t="s">
+      <c r="J56" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="57" spans="3:10" ht="15.75" customHeight="1">
       <c r="C57" s="203"/>
-      <c r="D57" s="204"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="208"/>
-      <c r="G57" s="208"/>
+      <c r="D57" s="210"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="212"/>
+      <c r="G57" s="212"/>
       <c r="H57" s="203"/>
-      <c r="I57" s="205"/>
-      <c r="J57" s="154"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="158"/>
     </row>
     <row r="58" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C58" s="200" t="s">
+      <c r="C58" s="205" t="s">
         <v>354</v>
       </c>
-      <c r="D58" s="201"/>
+      <c r="D58" s="209"/>
       <c r="E58" s="202"/>
-      <c r="F58" s="209" t="s">
+      <c r="F58" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G58" s="207" t="s">
+      <c r="G58" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H58" s="206"/>
+      <c r="H58" s="201"/>
       <c r="I58" s="202"/>
-      <c r="J58" s="200" t="s">
+      <c r="J58" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="59" spans="3:10" ht="15.75" customHeight="1">
       <c r="C59" s="203"/>
-      <c r="D59" s="204"/>
-      <c r="E59" s="205"/>
-      <c r="F59" s="208"/>
-      <c r="G59" s="208"/>
+      <c r="D59" s="210"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="212"/>
+      <c r="G59" s="212"/>
       <c r="H59" s="203"/>
-      <c r="I59" s="205"/>
-      <c r="J59" s="154"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="158"/>
     </row>
     <row r="60" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C60" s="200" t="s">
+      <c r="C60" s="205" t="s">
         <v>355</v>
       </c>
-      <c r="D60" s="201"/>
+      <c r="D60" s="209"/>
       <c r="E60" s="202"/>
-      <c r="F60" s="209" t="s">
+      <c r="F60" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G60" s="207" t="s">
+      <c r="G60" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H60" s="206"/>
+      <c r="H60" s="201"/>
       <c r="I60" s="202"/>
-      <c r="J60" s="200" t="s">
+      <c r="J60" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="61" spans="3:10" ht="15.75" customHeight="1">
       <c r="C61" s="203"/>
-      <c r="D61" s="204"/>
-      <c r="E61" s="205"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
+      <c r="D61" s="210"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="212"/>
+      <c r="G61" s="212"/>
       <c r="H61" s="203"/>
-      <c r="I61" s="205"/>
-      <c r="J61" s="154"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="158"/>
     </row>
     <row r="62" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C62" s="200" t="s">
+      <c r="C62" s="205" t="s">
         <v>356</v>
       </c>
-      <c r="D62" s="201"/>
+      <c r="D62" s="209"/>
       <c r="E62" s="202"/>
-      <c r="F62" s="209" t="s">
+      <c r="F62" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G62" s="207" t="s">
+      <c r="G62" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H62" s="206"/>
+      <c r="H62" s="201"/>
       <c r="I62" s="202"/>
-      <c r="J62" s="200" t="s">
+      <c r="J62" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="63" spans="3:10" ht="15.75" customHeight="1">
       <c r="C63" s="203"/>
-      <c r="D63" s="204"/>
-      <c r="E63" s="205"/>
-      <c r="F63" s="208"/>
-      <c r="G63" s="208"/>
+      <c r="D63" s="210"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="212"/>
+      <c r="G63" s="212"/>
       <c r="H63" s="203"/>
-      <c r="I63" s="205"/>
-      <c r="J63" s="154"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="158"/>
     </row>
     <row r="64" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C64" s="200" t="s">
+      <c r="C64" s="205" t="s">
         <v>357</v>
       </c>
-      <c r="D64" s="201"/>
+      <c r="D64" s="209"/>
       <c r="E64" s="202"/>
-      <c r="F64" s="209" t="s">
+      <c r="F64" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G64" s="207" t="s">
+      <c r="G64" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H64" s="206"/>
+      <c r="H64" s="201"/>
       <c r="I64" s="202"/>
-      <c r="J64" s="200" t="s">
+      <c r="J64" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="65" spans="3:10" ht="15.75" customHeight="1">
       <c r="C65" s="203"/>
-      <c r="D65" s="204"/>
-      <c r="E65" s="205"/>
-      <c r="F65" s="208"/>
-      <c r="G65" s="208"/>
+      <c r="D65" s="210"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="212"/>
+      <c r="G65" s="212"/>
       <c r="H65" s="203"/>
-      <c r="I65" s="205"/>
-      <c r="J65" s="154"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="158"/>
     </row>
     <row r="66" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C66" s="200" t="s">
+      <c r="C66" s="205" t="s">
         <v>358</v>
       </c>
-      <c r="D66" s="201"/>
+      <c r="D66" s="209"/>
       <c r="E66" s="202"/>
-      <c r="F66" s="209" t="s">
+      <c r="F66" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G66" s="207" t="s">
+      <c r="G66" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H66" s="206"/>
+      <c r="H66" s="201"/>
       <c r="I66" s="202"/>
-      <c r="J66" s="200" t="s">
+      <c r="J66" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="67" spans="3:10" ht="15.75" customHeight="1">
       <c r="C67" s="203"/>
-      <c r="D67" s="204"/>
-      <c r="E67" s="205"/>
-      <c r="F67" s="208"/>
-      <c r="G67" s="208"/>
+      <c r="D67" s="210"/>
+      <c r="E67" s="204"/>
+      <c r="F67" s="212"/>
+      <c r="G67" s="212"/>
       <c r="H67" s="203"/>
-      <c r="I67" s="205"/>
-      <c r="J67" s="154"/>
+      <c r="I67" s="204"/>
+      <c r="J67" s="158"/>
     </row>
     <row r="68" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C68" s="200" t="s">
+      <c r="C68" s="205" t="s">
         <v>359</v>
       </c>
-      <c r="D68" s="201"/>
+      <c r="D68" s="209"/>
       <c r="E68" s="202"/>
-      <c r="F68" s="209" t="s">
+      <c r="F68" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G68" s="207" t="s">
+      <c r="G68" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H68" s="206"/>
+      <c r="H68" s="201"/>
       <c r="I68" s="202"/>
-      <c r="J68" s="200" t="s">
+      <c r="J68" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="69" spans="3:10" ht="15.75" customHeight="1">
       <c r="C69" s="203"/>
-      <c r="D69" s="204"/>
-      <c r="E69" s="205"/>
-      <c r="F69" s="208"/>
-      <c r="G69" s="208"/>
+      <c r="D69" s="210"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="212"/>
+      <c r="G69" s="212"/>
       <c r="H69" s="203"/>
-      <c r="I69" s="205"/>
-      <c r="J69" s="154"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="158"/>
     </row>
     <row r="70" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C70" s="200" t="s">
+      <c r="C70" s="205" t="s">
         <v>360</v>
       </c>
-      <c r="D70" s="201"/>
+      <c r="D70" s="209"/>
       <c r="E70" s="202"/>
-      <c r="F70" s="209" t="s">
+      <c r="F70" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="207" t="s">
+      <c r="G70" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H70" s="206"/>
+      <c r="H70" s="201"/>
       <c r="I70" s="202"/>
-      <c r="J70" s="200" t="s">
+      <c r="J70" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="71" spans="3:10" ht="15.75" customHeight="1">
       <c r="C71" s="203"/>
-      <c r="D71" s="204"/>
-      <c r="E71" s="205"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
+      <c r="D71" s="210"/>
+      <c r="E71" s="204"/>
+      <c r="F71" s="212"/>
+      <c r="G71" s="212"/>
       <c r="H71" s="203"/>
-      <c r="I71" s="205"/>
-      <c r="J71" s="154"/>
+      <c r="I71" s="204"/>
+      <c r="J71" s="158"/>
     </row>
     <row r="72" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C72" s="200" t="s">
+      <c r="C72" s="205" t="s">
         <v>361</v>
       </c>
-      <c r="D72" s="201"/>
+      <c r="D72" s="209"/>
       <c r="E72" s="202"/>
-      <c r="F72" s="209" t="s">
+      <c r="F72" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G72" s="207" t="s">
+      <c r="G72" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H72" s="206"/>
+      <c r="H72" s="201"/>
       <c r="I72" s="202"/>
-      <c r="J72" s="200" t="s">
+      <c r="J72" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="73" spans="3:10" ht="15.75" customHeight="1">
       <c r="C73" s="203"/>
-      <c r="D73" s="204"/>
-      <c r="E73" s="205"/>
-      <c r="F73" s="208"/>
-      <c r="G73" s="208"/>
+      <c r="D73" s="210"/>
+      <c r="E73" s="204"/>
+      <c r="F73" s="212"/>
+      <c r="G73" s="212"/>
       <c r="H73" s="203"/>
-      <c r="I73" s="205"/>
-      <c r="J73" s="154"/>
+      <c r="I73" s="204"/>
+      <c r="J73" s="158"/>
     </row>
     <row r="74" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C74" s="200" t="s">
+      <c r="C74" s="205" t="s">
         <v>362</v>
       </c>
-      <c r="D74" s="201"/>
+      <c r="D74" s="209"/>
       <c r="E74" s="202"/>
-      <c r="F74" s="209" t="s">
+      <c r="F74" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G74" s="207" t="s">
+      <c r="G74" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H74" s="206"/>
+      <c r="H74" s="201"/>
       <c r="I74" s="202"/>
-      <c r="J74" s="200" t="s">
+      <c r="J74" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="75" spans="3:10" ht="15.75" customHeight="1">
       <c r="C75" s="203"/>
-      <c r="D75" s="204"/>
-      <c r="E75" s="205"/>
-      <c r="F75" s="208"/>
-      <c r="G75" s="208"/>
+      <c r="D75" s="210"/>
+      <c r="E75" s="204"/>
+      <c r="F75" s="212"/>
+      <c r="G75" s="212"/>
       <c r="H75" s="203"/>
-      <c r="I75" s="205"/>
-      <c r="J75" s="154"/>
+      <c r="I75" s="204"/>
+      <c r="J75" s="158"/>
     </row>
     <row r="76" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C76" s="200" t="s">
+      <c r="C76" s="205" t="s">
         <v>363</v>
       </c>
-      <c r="D76" s="201"/>
+      <c r="D76" s="209"/>
       <c r="E76" s="202"/>
-      <c r="F76" s="209" t="s">
+      <c r="F76" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G76" s="207" t="s">
+      <c r="G76" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H76" s="206"/>
+      <c r="H76" s="201"/>
       <c r="I76" s="202"/>
-      <c r="J76" s="200" t="s">
+      <c r="J76" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="77" spans="3:10" ht="15.75" customHeight="1">
       <c r="C77" s="203"/>
-      <c r="D77" s="204"/>
-      <c r="E77" s="205"/>
-      <c r="F77" s="208"/>
-      <c r="G77" s="208"/>
+      <c r="D77" s="210"/>
+      <c r="E77" s="204"/>
+      <c r="F77" s="212"/>
+      <c r="G77" s="212"/>
       <c r="H77" s="203"/>
-      <c r="I77" s="205"/>
-      <c r="J77" s="154"/>
+      <c r="I77" s="204"/>
+      <c r="J77" s="158"/>
     </row>
     <row r="78" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C78" s="200" t="s">
+      <c r="C78" s="205" t="s">
         <v>364</v>
       </c>
-      <c r="D78" s="201"/>
+      <c r="D78" s="209"/>
       <c r="E78" s="202"/>
-      <c r="F78" s="209" t="s">
+      <c r="F78" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G78" s="207" t="s">
+      <c r="G78" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H78" s="206"/>
+      <c r="H78" s="201"/>
       <c r="I78" s="202"/>
-      <c r="J78" s="200" t="s">
+      <c r="J78" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="79" spans="3:10" ht="15.75" customHeight="1">
       <c r="C79" s="203"/>
-      <c r="D79" s="204"/>
-      <c r="E79" s="205"/>
-      <c r="F79" s="208"/>
-      <c r="G79" s="208"/>
+      <c r="D79" s="210"/>
+      <c r="E79" s="204"/>
+      <c r="F79" s="212"/>
+      <c r="G79" s="212"/>
       <c r="H79" s="203"/>
-      <c r="I79" s="205"/>
-      <c r="J79" s="154"/>
+      <c r="I79" s="204"/>
+      <c r="J79" s="158"/>
     </row>
     <row r="80" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C80" s="200" t="s">
+      <c r="C80" s="205" t="s">
         <v>365</v>
       </c>
-      <c r="D80" s="201"/>
+      <c r="D80" s="209"/>
       <c r="E80" s="202"/>
-      <c r="F80" s="209" t="s">
+      <c r="F80" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G80" s="207" t="s">
+      <c r="G80" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H80" s="206"/>
+      <c r="H80" s="201"/>
       <c r="I80" s="202"/>
-      <c r="J80" s="200" t="s">
+      <c r="J80" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="81" spans="3:10" ht="15.75" customHeight="1">
       <c r="C81" s="203"/>
-      <c r="D81" s="204"/>
-      <c r="E81" s="205"/>
-      <c r="F81" s="208"/>
-      <c r="G81" s="208"/>
+      <c r="D81" s="210"/>
+      <c r="E81" s="204"/>
+      <c r="F81" s="212"/>
+      <c r="G81" s="212"/>
       <c r="H81" s="203"/>
-      <c r="I81" s="205"/>
-      <c r="J81" s="154"/>
+      <c r="I81" s="204"/>
+      <c r="J81" s="158"/>
     </row>
     <row r="82" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C82" s="200" t="s">
+      <c r="C82" s="205" t="s">
         <v>366</v>
       </c>
-      <c r="D82" s="201"/>
+      <c r="D82" s="209"/>
       <c r="E82" s="202"/>
-      <c r="F82" s="209" t="s">
+      <c r="F82" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G82" s="207" t="s">
+      <c r="G82" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H82" s="206"/>
+      <c r="H82" s="201"/>
       <c r="I82" s="202"/>
-      <c r="J82" s="200" t="s">
+      <c r="J82" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="83" spans="3:10" ht="15.75" customHeight="1">
       <c r="C83" s="203"/>
-      <c r="D83" s="204"/>
-      <c r="E83" s="205"/>
-      <c r="F83" s="208"/>
-      <c r="G83" s="208"/>
+      <c r="D83" s="210"/>
+      <c r="E83" s="204"/>
+      <c r="F83" s="212"/>
+      <c r="G83" s="212"/>
       <c r="H83" s="203"/>
-      <c r="I83" s="205"/>
-      <c r="J83" s="154"/>
+      <c r="I83" s="204"/>
+      <c r="J83" s="158"/>
     </row>
     <row r="84" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C84" s="200" t="s">
+      <c r="C84" s="205" t="s">
         <v>367</v>
       </c>
-      <c r="D84" s="201"/>
+      <c r="D84" s="209"/>
       <c r="E84" s="202"/>
-      <c r="F84" s="209" t="s">
+      <c r="F84" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G84" s="207" t="s">
+      <c r="G84" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H84" s="206"/>
+      <c r="H84" s="201"/>
       <c r="I84" s="202"/>
-      <c r="J84" s="200" t="s">
+      <c r="J84" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="85" spans="3:10" ht="15.75" customHeight="1">
       <c r="C85" s="203"/>
-      <c r="D85" s="204"/>
-      <c r="E85" s="205"/>
-      <c r="F85" s="208"/>
-      <c r="G85" s="208"/>
+      <c r="D85" s="210"/>
+      <c r="E85" s="204"/>
+      <c r="F85" s="212"/>
+      <c r="G85" s="212"/>
       <c r="H85" s="203"/>
-      <c r="I85" s="205"/>
-      <c r="J85" s="154"/>
+      <c r="I85" s="204"/>
+      <c r="J85" s="158"/>
     </row>
     <row r="86" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C86" s="200" t="s">
+      <c r="C86" s="205" t="s">
         <v>368</v>
       </c>
-      <c r="D86" s="201"/>
+      <c r="D86" s="209"/>
       <c r="E86" s="202"/>
-      <c r="F86" s="209" t="s">
+      <c r="F86" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G86" s="207" t="s">
+      <c r="G86" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H86" s="206"/>
+      <c r="H86" s="201"/>
       <c r="I86" s="202"/>
-      <c r="J86" s="200" t="s">
+      <c r="J86" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="87" spans="3:10" ht="15.75" customHeight="1">
       <c r="C87" s="203"/>
-      <c r="D87" s="204"/>
-      <c r="E87" s="205"/>
-      <c r="F87" s="208"/>
-      <c r="G87" s="208"/>
+      <c r="D87" s="210"/>
+      <c r="E87" s="204"/>
+      <c r="F87" s="212"/>
+      <c r="G87" s="212"/>
       <c r="H87" s="203"/>
-      <c r="I87" s="205"/>
-      <c r="J87" s="154"/>
+      <c r="I87" s="204"/>
+      <c r="J87" s="158"/>
     </row>
     <row r="88" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C88" s="200" t="s">
+      <c r="C88" s="205" t="s">
         <v>369</v>
       </c>
-      <c r="D88" s="201"/>
+      <c r="D88" s="209"/>
       <c r="E88" s="202"/>
-      <c r="F88" s="209" t="s">
+      <c r="F88" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G88" s="207" t="s">
+      <c r="G88" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H88" s="206"/>
+      <c r="H88" s="201"/>
       <c r="I88" s="202"/>
-      <c r="J88" s="200" t="s">
+      <c r="J88" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="89" spans="3:10" ht="15.75" customHeight="1">
       <c r="C89" s="203"/>
-      <c r="D89" s="204"/>
-      <c r="E89" s="205"/>
-      <c r="F89" s="208"/>
-      <c r="G89" s="208"/>
+      <c r="D89" s="210"/>
+      <c r="E89" s="204"/>
+      <c r="F89" s="212"/>
+      <c r="G89" s="212"/>
       <c r="H89" s="203"/>
-      <c r="I89" s="205"/>
-      <c r="J89" s="154"/>
+      <c r="I89" s="204"/>
+      <c r="J89" s="158"/>
     </row>
     <row r="90" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C90" s="200" t="s">
+      <c r="C90" s="205" t="s">
         <v>370</v>
       </c>
-      <c r="D90" s="201"/>
+      <c r="D90" s="209"/>
       <c r="E90" s="202"/>
-      <c r="F90" s="209" t="s">
+      <c r="F90" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G90" s="207" t="s">
+      <c r="G90" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H90" s="206"/>
+      <c r="H90" s="201"/>
       <c r="I90" s="202"/>
-      <c r="J90" s="200" t="s">
+      <c r="J90" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="91" spans="3:10" ht="15.75" customHeight="1">
       <c r="C91" s="203"/>
-      <c r="D91" s="204"/>
-      <c r="E91" s="205"/>
-      <c r="F91" s="208"/>
-      <c r="G91" s="208"/>
+      <c r="D91" s="210"/>
+      <c r="E91" s="204"/>
+      <c r="F91" s="212"/>
+      <c r="G91" s="212"/>
       <c r="H91" s="203"/>
-      <c r="I91" s="205"/>
-      <c r="J91" s="154"/>
+      <c r="I91" s="204"/>
+      <c r="J91" s="158"/>
     </row>
     <row r="92" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C92" s="200" t="s">
+      <c r="C92" s="205" t="s">
         <v>371</v>
       </c>
-      <c r="D92" s="201"/>
+      <c r="D92" s="209"/>
       <c r="E92" s="202"/>
-      <c r="F92" s="209" t="s">
+      <c r="F92" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G92" s="207" t="s">
+      <c r="G92" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H92" s="206"/>
+      <c r="H92" s="201"/>
       <c r="I92" s="202"/>
-      <c r="J92" s="200" t="s">
+      <c r="J92" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="93" spans="3:10" ht="15.75" customHeight="1">
       <c r="C93" s="203"/>
-      <c r="D93" s="204"/>
-      <c r="E93" s="205"/>
-      <c r="F93" s="208"/>
-      <c r="G93" s="208"/>
+      <c r="D93" s="210"/>
+      <c r="E93" s="204"/>
+      <c r="F93" s="212"/>
+      <c r="G93" s="212"/>
       <c r="H93" s="203"/>
-      <c r="I93" s="205"/>
-      <c r="J93" s="154"/>
+      <c r="I93" s="204"/>
+      <c r="J93" s="158"/>
     </row>
     <row r="94" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C94" s="200" t="s">
+      <c r="C94" s="205" t="s">
         <v>372</v>
       </c>
-      <c r="D94" s="201"/>
+      <c r="D94" s="209"/>
       <c r="E94" s="202"/>
-      <c r="F94" s="209" t="s">
+      <c r="F94" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G94" s="207" t="s">
+      <c r="G94" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H94" s="206"/>
+      <c r="H94" s="201"/>
       <c r="I94" s="202"/>
-      <c r="J94" s="200" t="s">
+      <c r="J94" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="95" spans="3:10" ht="15.75" customHeight="1">
       <c r="C95" s="203"/>
-      <c r="D95" s="204"/>
-      <c r="E95" s="205"/>
-      <c r="F95" s="208"/>
-      <c r="G95" s="208"/>
+      <c r="D95" s="210"/>
+      <c r="E95" s="204"/>
+      <c r="F95" s="212"/>
+      <c r="G95" s="212"/>
       <c r="H95" s="203"/>
-      <c r="I95" s="205"/>
-      <c r="J95" s="154"/>
+      <c r="I95" s="204"/>
+      <c r="J95" s="158"/>
     </row>
     <row r="96" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C96" s="200" t="s">
+      <c r="C96" s="205" t="s">
         <v>373</v>
       </c>
-      <c r="D96" s="201"/>
+      <c r="D96" s="209"/>
       <c r="E96" s="202"/>
-      <c r="F96" s="209" t="s">
+      <c r="F96" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G96" s="207" t="s">
+      <c r="G96" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H96" s="206"/>
+      <c r="H96" s="201"/>
       <c r="I96" s="202"/>
-      <c r="J96" s="200" t="s">
+      <c r="J96" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="97" spans="3:10" ht="15.75" customHeight="1">
       <c r="C97" s="203"/>
-      <c r="D97" s="204"/>
-      <c r="E97" s="205"/>
-      <c r="F97" s="208"/>
-      <c r="G97" s="208"/>
+      <c r="D97" s="210"/>
+      <c r="E97" s="204"/>
+      <c r="F97" s="212"/>
+      <c r="G97" s="212"/>
       <c r="H97" s="203"/>
-      <c r="I97" s="205"/>
-      <c r="J97" s="154"/>
+      <c r="I97" s="204"/>
+      <c r="J97" s="158"/>
     </row>
     <row r="98" spans="3:10" ht="16.5" customHeight="1">
-      <c r="C98" s="200" t="s">
+      <c r="C98" s="205" t="s">
         <v>374</v>
       </c>
-      <c r="D98" s="201"/>
+      <c r="D98" s="209"/>
       <c r="E98" s="202"/>
-      <c r="F98" s="209" t="s">
+      <c r="F98" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="G98" s="207" t="s">
+      <c r="G98" s="214" t="s">
         <v>315</v>
       </c>
-      <c r="H98" s="206"/>
+      <c r="H98" s="201"/>
       <c r="I98" s="202"/>
-      <c r="J98" s="200" t="s">
+      <c r="J98" s="205" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="99" spans="3:10" ht="15.75" customHeight="1">
       <c r="C99" s="203"/>
-      <c r="D99" s="204"/>
-      <c r="E99" s="205"/>
-      <c r="F99" s="208"/>
-      <c r="G99" s="208"/>
+      <c r="D99" s="210"/>
+      <c r="E99" s="204"/>
+      <c r="F99" s="212"/>
+      <c r="G99" s="212"/>
       <c r="H99" s="203"/>
-      <c r="I99" s="205"/>
-      <c r="J99" s="154"/>
+      <c r="I99" s="204"/>
+      <c r="J99" s="158"/>
     </row>
     <row r="100" spans="3:10" ht="15.75" customHeight="1"/>
     <row r="101" spans="3:10" ht="15.75" customHeight="1"/>
@@ -19079,20 +19081,205 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="247">
-    <mergeCell ref="H92:I93"/>
-    <mergeCell ref="J90:J91"/>
-    <mergeCell ref="H82:I83"/>
-    <mergeCell ref="H84:I85"/>
-    <mergeCell ref="H94:I95"/>
-    <mergeCell ref="H90:I91"/>
-    <mergeCell ref="H86:I87"/>
-    <mergeCell ref="H88:I89"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="C12:E13"/>
-    <mergeCell ref="C14:E15"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C96:E97"/>
+    <mergeCell ref="H96:I97"/>
+    <mergeCell ref="C86:E87"/>
+    <mergeCell ref="C88:E89"/>
+    <mergeCell ref="C94:E95"/>
+    <mergeCell ref="C90:E91"/>
+    <mergeCell ref="J94:J95"/>
+    <mergeCell ref="C98:E99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="C92:E93"/>
+    <mergeCell ref="F90:F91"/>
+    <mergeCell ref="G90:G91"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F86:F87"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="G94:G95"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="C72:E73"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="C78:E79"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="C74:E75"/>
+    <mergeCell ref="C76:E77"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="C46:E47"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="C30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C32:E33"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C36:E37"/>
+    <mergeCell ref="C38:E39"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="C42:E43"/>
+    <mergeCell ref="C44:E45"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="C40:E41"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H48:I49"/>
+    <mergeCell ref="H44:I45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H34:I35"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:I39"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="C80:E81"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="C68:E69"/>
+    <mergeCell ref="H68:I69"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="C82:E83"/>
+    <mergeCell ref="C84:E85"/>
+    <mergeCell ref="H80:I81"/>
+    <mergeCell ref="H76:I77"/>
+    <mergeCell ref="H70:I71"/>
+    <mergeCell ref="H72:I73"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="C70:E71"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="C52:E53"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="H54:I55"/>
+    <mergeCell ref="H52:I53"/>
+    <mergeCell ref="H50:I51"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="H58:I59"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="H98:I99"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="H46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="H74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="J86:J87"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="H78:I79"/>
+    <mergeCell ref="C62:E63"/>
+    <mergeCell ref="C64:E65"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:I67"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="C54:E55"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="H56:I57"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="C60:E61"/>
+    <mergeCell ref="C66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H62:I63"/>
+    <mergeCell ref="H64:I65"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:I61"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="H42:I43"/>
+    <mergeCell ref="H40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H28:I29"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H26:I27"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="H32:I33"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:E5"/>
@@ -19117,6 +19304,20 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="H22:I23"/>
     <mergeCell ref="F24:F25"/>
+    <mergeCell ref="H92:I93"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="H82:I83"/>
+    <mergeCell ref="H84:I85"/>
+    <mergeCell ref="H94:I95"/>
+    <mergeCell ref="H90:I91"/>
+    <mergeCell ref="H86:I87"/>
+    <mergeCell ref="H88:I89"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="C12:E13"/>
+    <mergeCell ref="C14:E15"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="G24:G25"/>
     <mergeCell ref="J24:J25"/>
     <mergeCell ref="H24:I25"/>
@@ -19127,205 +19328,6 @@
     <mergeCell ref="H18:I19"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="H42:I43"/>
-    <mergeCell ref="H40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="H20:I21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="H28:I29"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C62:E63"/>
-    <mergeCell ref="C64:E65"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:I67"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="C54:E55"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="H56:I57"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="C60:E61"/>
-    <mergeCell ref="C66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H62:I63"/>
-    <mergeCell ref="H64:I65"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="H98:I99"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="H46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="H74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="J86:J87"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="H78:I79"/>
-    <mergeCell ref="H60:I61"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="C50:E51"/>
-    <mergeCell ref="C52:E53"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="H54:I55"/>
-    <mergeCell ref="H52:I53"/>
-    <mergeCell ref="H50:I51"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="C80:E81"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="C68:E69"/>
-    <mergeCell ref="H68:I69"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="C82:E83"/>
-    <mergeCell ref="C84:E85"/>
-    <mergeCell ref="H80:I81"/>
-    <mergeCell ref="H76:I77"/>
-    <mergeCell ref="H70:I71"/>
-    <mergeCell ref="H72:I73"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H26:I27"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="H58:I59"/>
-    <mergeCell ref="H48:I49"/>
-    <mergeCell ref="H44:I45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H34:I35"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:I39"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="C46:E47"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="C30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C32:E33"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C36:E37"/>
-    <mergeCell ref="C38:E39"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="C42:E43"/>
-    <mergeCell ref="C44:E45"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="C40:E41"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="C70:E71"/>
-    <mergeCell ref="C72:E73"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="C78:E79"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="C74:E75"/>
-    <mergeCell ref="C76:E77"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="C96:E97"/>
-    <mergeCell ref="H96:I97"/>
-    <mergeCell ref="C86:E87"/>
-    <mergeCell ref="C88:E89"/>
-    <mergeCell ref="C94:E95"/>
-    <mergeCell ref="C90:E91"/>
-    <mergeCell ref="J94:J95"/>
-    <mergeCell ref="C98:E99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="C92:E93"/>
-    <mergeCell ref="F90:F91"/>
-    <mergeCell ref="G90:G91"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F94:F95"/>
-    <mergeCell ref="F86:F87"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="G94:G95"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="J92:J93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -19337,7 +19339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A2:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -19356,17 +19358,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -19395,11 +19397,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -19420,10 +19422,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -19442,126 +19444,126 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="214" t="s">
+      <c r="D7" s="218" t="s">
         <v>298</v>
       </c>
-      <c r="E7" s="215"/>
-      <c r="F7" s="216" t="s">
+      <c r="E7" s="219"/>
+      <c r="F7" s="220" t="s">
         <v>166</v>
       </c>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="97"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="100"/>
       <c r="J7" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="149"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="99"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="99"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99"/>
+      <c r="D10" s="148"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="217" t="s">
         <v>306</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="99"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="97"/>
       <c r="G12" s="26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="218" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="215" t="s">
         <v>311</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="91" t="s">
         <v>98</v>
       </c>
@@ -19579,11 +19581,11 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="219" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="216" t="s">
         <v>314</v>
       </c>
       <c r="D16" s="51" t="s">
@@ -19597,11 +19599,11 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="147"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="151"/>
       <c r="D17" s="51" t="s">
         <v>317</v>
       </c>
@@ -19613,11 +19615,11 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="147"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="151"/>
       <c r="D18" s="51" t="s">
         <v>318</v>
       </c>
@@ -19629,11 +19631,11 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="126"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="51" t="s">
         <v>141</v>
       </c>
@@ -19645,11 +19647,11 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="219" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="216" t="s">
         <v>320</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -19663,11 +19665,11 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="147"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="151"/>
       <c r="D21" s="51" t="s">
         <v>322</v>
       </c>
@@ -19679,11 +19681,11 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="123"/>
       <c r="D22" s="51" t="s">
         <v>141</v>
       </c>
@@ -19695,10 +19697,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" t="s">
         <v>323</v>
       </c>
@@ -20682,6 +20684,22 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:I7"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C16:C19"/>
     <mergeCell ref="C20:C22"/>
@@ -20698,22 +20716,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -20741,17 +20743,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -20780,11 +20782,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -20805,10 +20807,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -20827,10 +20829,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="87" t="s">
         <v>299</v>
       </c>
@@ -20845,20 +20847,20 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="220" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="221" t="s">
         <v>301</v>
       </c>
-      <c r="D8" s="220" t="s">
+      <c r="D8" s="221" t="s">
         <v>303</v>
       </c>
-      <c r="E8" s="221" t="s">
+      <c r="E8" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="221" t="s">
+      <c r="F8" s="222" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="88" t="s">
@@ -20866,134 +20868,134 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="147"/>
-      <c r="D9" s="147"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="147"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="147"/>
-      <c r="D15" s="147"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="147"/>
-      <c r="D17" s="147"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:6" ht="15.75" customHeight="1"/>
@@ -21974,16 +21976,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D4:F4"/>
@@ -21998,6 +21990,16 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -22026,17 +22028,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -22065,11 +22067,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -22090,10 +22092,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -22112,20 +22114,20 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="223" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="224" t="s">
         <v>327</v>
       </c>
-      <c r="D7" s="223" t="s">
+      <c r="D7" s="224" t="s">
         <v>328</v>
       </c>
-      <c r="E7" s="222" t="s">
+      <c r="E7" s="223" t="s">
         <v>330</v>
       </c>
-      <c r="F7" s="222" t="s">
+      <c r="F7" s="223" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="226" t="s">
@@ -22134,32 +22136,32 @@
       <c r="H7" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="224" t="s">
+      <c r="I7" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="J7" s="224" t="s">
+      <c r="J7" s="227" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="92"/>
@@ -22170,10 +22172,10 @@
       <c r="J9" s="92"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="92"/>
@@ -22184,10 +22186,10 @@
       <c r="J10" s="92"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="40" t="s">
         <v>337</v>
       </c>
@@ -22200,26 +22202,26 @@
       <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="223" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="224" t="s">
         <v>327</v>
       </c>
-      <c r="D13" s="223" t="s">
+      <c r="D13" s="224" t="s">
         <v>328</v>
       </c>
-      <c r="E13" s="222" t="s">
+      <c r="E13" s="223" t="s">
         <v>330</v>
       </c>
-      <c r="F13" s="222" t="s">
+      <c r="F13" s="223" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="226" t="s">
@@ -22228,32 +22230,32 @@
       <c r="H13" s="225" t="s">
         <v>94</v>
       </c>
-      <c r="I13" s="224" t="s">
+      <c r="I13" s="227" t="s">
         <v>333</v>
       </c>
-      <c r="J13" s="224" t="s">
+      <c r="J13" s="227" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="126"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="126"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="123"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -22264,10 +22266,10 @@
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -22278,10 +22280,10 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="40" t="s">
         <v>337</v>
       </c>
@@ -22294,16 +22296,16 @@
       <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="93" t="s">
         <v>90</v>
       </c>
@@ -22313,28 +22315,28 @@
       <c r="G19" s="95"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
@@ -23315,6 +23317,27 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="C13:C14"/>
@@ -23330,27 +23353,6 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.23" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -23379,17 +23381,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -23418,11 +23420,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -23443,10 +23445,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -23465,10 +23467,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -23483,96 +23485,96 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="122" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="122" t="s">
+      <c r="D9" s="130" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="122" t="s">
+      <c r="E9" s="130" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="122" t="s">
+      <c r="F9" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="124" t="s">
+      <c r="H9" s="132" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="124" t="s">
+      <c r="I9" s="132" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
-      <c r="I10" s="123"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="125" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="132" t="s">
+      <c r="D11" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="131" t="s">
+      <c r="E11" s="125" t="s">
         <v>43</v>
       </c>
       <c r="F11" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="127" t="s">
+      <c r="G11" s="127"/>
+      <c r="H11" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="128" t="s">
+      <c r="I11" s="126" t="s">
         <v>21</v>
       </c>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="126"/>
-      <c r="I12" s="126"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="123"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="26"/>
@@ -23580,50 +23582,50 @@
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="125" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="132" t="s">
+      <c r="D14" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="131" t="s">
+      <c r="E14" s="125" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="130"/>
-      <c r="H14" s="127" t="s">
+      <c r="G14" s="127"/>
+      <c r="H14" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="128" t="s">
+      <c r="I14" s="126" t="s">
         <v>21</v>
       </c>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="26"/>
@@ -23631,50 +23633,50 @@
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="125" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="132" t="s">
+      <c r="D17" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="131" t="s">
+      <c r="E17" s="125" t="s">
         <v>43</v>
       </c>
       <c r="F17" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="130"/>
-      <c r="H17" s="127" t="s">
+      <c r="G17" s="127"/>
+      <c r="H17" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="I17" s="128" t="s">
+      <c r="I17" s="126" t="s">
         <v>21</v>
       </c>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="126"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="123"/>
+      <c r="E18" s="123"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="123"/>
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="26"/>
@@ -23682,56 +23684,56 @@
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="125" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="132" t="s">
+      <c r="D20" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="131" t="s">
+      <c r="E20" s="125" t="s">
         <v>43</v>
       </c>
       <c r="F20" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="130"/>
-      <c r="H20" s="127" t="s">
+      <c r="G20" s="127"/>
+      <c r="H20" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="128" t="s">
+      <c r="I20" s="126" t="s">
         <v>21</v>
       </c>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="126"/>
-      <c r="I21" s="126"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
@@ -24712,13 +24714,38 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
@@ -24735,38 +24762,13 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -24795,17 +24797,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -24834,11 +24836,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -24859,10 +24861,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -24881,10 +24883,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
@@ -24908,16 +24910,16 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="25" t="s">
         <v>46</v>
       </c>
@@ -24926,50 +24928,50 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="122" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="122" t="s">
+      <c r="D10" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="122" t="s">
+      <c r="E10" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="122" t="s">
+      <c r="F10" s="130" t="s">
         <v>53</v>
       </c>
       <c r="G10" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="136" t="s">
+      <c r="H10" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="132" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="134"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="134"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="20" t="s">
         <v>59</v>
       </c>
@@ -24991,20 +24993,20 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="26"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="25" t="s">
         <v>46</v>
       </c>
@@ -25014,50 +25016,50 @@
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="122" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="122" t="s">
+      <c r="D15" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="122" t="s">
+      <c r="E15" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="122" t="s">
+      <c r="F15" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="124" t="s">
+      <c r="G15" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="136" t="s">
+      <c r="H15" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="I15" s="124" t="s">
+      <c r="I15" s="132" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
-      <c r="F16" s="123"/>
-      <c r="G16" s="123"/>
-      <c r="H16" s="123"/>
-      <c r="I16" s="123"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="20" t="s">
         <v>78</v>
       </c>
@@ -25080,10 +25082,10 @@
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="20" t="s">
         <v>78</v>
       </c>
@@ -25106,10 +25108,10 @@
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="29"/>
       <c r="D19" s="26"/>
       <c r="E19" s="29"/>
@@ -25119,10 +25121,10 @@
       <c r="I19" s="32"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="25" t="s">
         <v>46</v>
       </c>
@@ -25132,50 +25134,50 @@
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="122" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="130" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="122" t="s">
+      <c r="E21" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="122" t="s">
+      <c r="F21" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="124" t="s">
+      <c r="G21" s="132" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="124" t="s">
+      <c r="I21" s="132" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="123"/>
-      <c r="E22" s="123"/>
-      <c r="F22" s="123"/>
-      <c r="G22" s="123"/>
-      <c r="H22" s="123"/>
-      <c r="I22" s="123"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="20" t="s">
         <v>78</v>
       </c>
@@ -26290,11 +26292,26 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I15:I16"/>
@@ -26308,29 +26325,14 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -26359,17 +26361,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -26398,11 +26400,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -26423,10 +26425,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -26446,21 +26448,21 @@
       <c r="D6" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="109"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="26" t="s">
         <v>122</v>
       </c>
@@ -26469,111 +26471,111 @@
       <c r="G8" s="50"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="D9" s="50"/>
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="J12" s="26" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -27563,6 +27565,20 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
@@ -27570,20 +27586,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -27612,17 +27614,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
@@ -27651,11 +27653,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -27676,10 +27678,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -27698,63 +27700,63 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="48" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="141" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="141" t="s">
+      <c r="D8" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="141" t="s">
+      <c r="E8" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="141" t="s">
+      <c r="G8" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="J8" s="140" t="s">
+      <c r="J8" s="139" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="123"/>
-      <c r="E9" s="123"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="123"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="123"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="53"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -27765,63 +27767,63 @@
       <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="48" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="141" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E12" s="141" t="s">
+      <c r="E12" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="139" t="s">
+      <c r="F12" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="I12" s="139" t="s">
+      <c r="I12" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="J12" s="140" t="s">
+      <c r="J12" s="139" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="123"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="123"/>
-      <c r="H13" s="123"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="123"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="53"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -27833,63 +27835,63 @@
       <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="48" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="141" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="141" t="s">
+      <c r="E16" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="139" t="s">
+      <c r="F16" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="140" t="s">
+      <c r="H16" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="I16" s="139" t="s">
+      <c r="I16" s="140" t="s">
         <v>131</v>
       </c>
-      <c r="J16" s="140" t="s">
+      <c r="J16" s="139" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
@@ -27901,65 +27903,65 @@
       <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="143" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="142" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="97"/>
+      <c r="D19" s="100"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="145" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="97"/>
-      <c r="E20" s="142" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="97"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="58" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="144">
+      <c r="B21" s="100"/>
+      <c r="C21" s="143">
         <v>0</v>
       </c>
-      <c r="D21" s="97"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="97"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="53"/>
       <c r="K21" s="26"/>
       <c r="N21" s="26"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="138" t="s">
+      <c r="D23" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="99"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="64" t="s">
         <v>49</v>
       </c>
@@ -28953,6 +28955,40 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="I16:I17"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:E5"/>
@@ -28969,40 +29005,6 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D12:D13"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.25" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -29031,17 +29033,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -29070,11 +29072,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -29095,10 +29097,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -29117,10 +29119,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="27" t="s">
         <v>145</v>
       </c>
@@ -29141,17 +29143,17 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
       <c r="E8" s="63"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="44" t="s">
         <v>150</v>
       </c>
@@ -29164,18 +29166,18 @@
       <c r="F9" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="G9" s="148" t="s">
+      <c r="G9" s="149" t="s">
         <v>152</v>
       </c>
-      <c r="H9" s="103"/>
-      <c r="I9" s="99"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="97"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="146" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="150" t="s">
         <v>156</v>
       </c>
       <c r="D10" s="40" t="s">
@@ -29187,16 +29189,16 @@
       <c r="F10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="149"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="99"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="147"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="151"/>
       <c r="D11" s="40" t="s">
         <v>158</v>
       </c>
@@ -29206,17 +29208,17 @@
       <c r="F11" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="150"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="99"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="147"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="151"/>
       <c r="D12" s="40" t="s">
         <v>159</v>
       </c>
@@ -29226,17 +29228,17 @@
       <c r="F12" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="99"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="126"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="40" t="s">
         <v>160</v>
       </c>
@@ -29246,23 +29248,23 @@
       <c r="F13" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="150"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="99"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="146" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="150" t="s">
         <v>161</v>
       </c>
       <c r="D15" s="40" t="s">
@@ -29274,17 +29276,17 @@
       <c r="F15" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="150"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="99"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
-      <c r="C16" s="147"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="40" t="s">
         <v>163</v>
       </c>
@@ -29294,17 +29296,17 @@
       <c r="F16" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="150"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="99"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="98"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="126"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="40" t="s">
         <v>167</v>
       </c>
@@ -29314,23 +29316,23 @@
       <c r="F17" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="150"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="99"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="100"/>
+      <c r="C19" s="150" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="40" t="s">
@@ -29339,59 +29341,59 @@
       <c r="E19" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="151" t="s">
+      <c r="F19" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="99"/>
+      <c r="G19" s="97"/>
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="C20" s="147"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="151"/>
       <c r="D20" s="40" t="s">
         <v>173</v>
       </c>
       <c r="E20" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="F20" s="151" t="s">
+      <c r="F20" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="G20" s="99"/>
+      <c r="G20" s="97"/>
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="123"/>
       <c r="D21" s="40" t="s">
         <v>174</v>
       </c>
       <c r="E21" s="64" t="s">
         <v>170</v>
       </c>
-      <c r="F21" s="151" t="s">
+      <c r="F21" s="147" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="99"/>
+      <c r="G21" s="97"/>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:10" ht="15.75" customHeight="1"/>
@@ -30372,11 +30374,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A13:B13"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="A12:B12"/>
@@ -30384,28 +30394,20 @@
     <mergeCell ref="G16:I16"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="D5:E5"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -30434,17 +30436,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -30473,11 +30475,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -30498,10 +30500,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -30538,228 +30540,228 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="163" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="163" t="s">
+      <c r="D7" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="152" t="s">
+      <c r="E7" s="166" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="161" t="s">
+      <c r="F7" s="157"/>
+      <c r="G7" s="155" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="162" t="s">
+      <c r="H7" s="156" t="s">
         <v>172</v>
       </c>
-      <c r="I7" s="153"/>
+      <c r="I7" s="157"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="147"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="155"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="155"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="159"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="157"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="161"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="164" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="163" t="s">
         <v>179</v>
       </c>
-      <c r="D10" s="165" t="s">
+      <c r="D10" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="160" t="s">
+      <c r="E10" s="166"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="154" t="s">
         <v>185</v>
       </c>
-      <c r="H10" s="158" t="s">
+      <c r="H10" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="99"/>
+      <c r="I10" s="97"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="147"/>
-      <c r="D11" s="147"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="155"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="159" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="99"/>
+      <c r="I11" s="97"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="147"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="159" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="99"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="118" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="159" t="s">
+      <c r="B13" s="100"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="155"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="159" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="99"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="159" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="160"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="99"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="166" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="152" t="s">
         <v>191</v>
       </c>
-      <c r="D21" s="112"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="109"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1"/>
     <row r="25" spans="1:9" ht="15.75" customHeight="1"/>
@@ -31740,15 +31742,19 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C21:I23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="E7:F9"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="E10:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
@@ -31763,19 +31769,15 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="C10:C15"/>
     <mergeCell ref="D10:D15"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="E7:F9"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="E10:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C21:I23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -31804,17 +31806,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
@@ -31843,11 +31845,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -31868,10 +31870,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -31890,10 +31892,10 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="67" t="s">
         <v>19</v>
       </c>
@@ -31908,16 +31910,16 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
+      <c r="B8" s="100"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="68" t="s">
         <v>175</v>
       </c>
@@ -31938,10 +31940,10 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="51" t="s">
         <v>180</v>
       </c>
@@ -31960,10 +31962,10 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="69" t="s">
         <v>184</v>
       </c>
@@ -31971,47 +31973,47 @@
       <c r="E11" s="64"/>
       <c r="F11" s="59"/>
       <c r="G11" s="40"/>
-      <c r="H11" s="147"/>
+      <c r="H11" s="151"/>
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="40"/>
       <c r="D12" s="59"/>
       <c r="E12" s="64"/>
       <c r="F12" s="59"/>
       <c r="G12" s="40"/>
-      <c r="H12" s="147"/>
+      <c r="H12" s="151"/>
       <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="40"/>
       <c r="D13" s="59"/>
       <c r="E13" s="64"/>
       <c r="F13" s="59"/>
       <c r="G13" s="40"/>
-      <c r="H13" s="126"/>
+      <c r="H13" s="123"/>
       <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="104" t="s">
+      <c r="A14" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
+      <c r="B14" s="100"/>
       <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="44" t="s">
         <v>186</v>
       </c>
@@ -32031,10 +32033,10 @@
       <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="69" t="s">
         <v>184</v>
       </c>
@@ -32042,47 +32044,47 @@
       <c r="E16" s="64"/>
       <c r="F16" s="59"/>
       <c r="G16" s="40"/>
-      <c r="H16" s="147"/>
+      <c r="H16" s="151"/>
       <c r="J16" s="26"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="40"/>
       <c r="D17" s="59"/>
       <c r="E17" s="64"/>
       <c r="F17" s="59"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="147"/>
+      <c r="H17" s="151"/>
       <c r="J17" s="26"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="40"/>
       <c r="D18" s="59"/>
       <c r="E18" s="64"/>
       <c r="F18" s="59"/>
       <c r="G18" s="40"/>
-      <c r="H18" s="126"/>
+      <c r="H18" s="123"/>
       <c r="J18" s="26"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
       <c r="H19" s="63"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="20" t="s">
         <v>188</v>
       </c>
@@ -32102,10 +32104,10 @@
       <c r="J20" s="26"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="69" t="s">
         <v>184</v>
       </c>
@@ -32113,33 +32115,33 @@
       <c r="E21" s="64"/>
       <c r="F21" s="59"/>
       <c r="G21" s="40"/>
-      <c r="H21" s="147"/>
+      <c r="H21" s="151"/>
       <c r="J21" s="26"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
       <c r="F22" s="40"/>
       <c r="G22" s="40"/>
-      <c r="H22" s="147"/>
+      <c r="H22" s="151"/>
       <c r="J22" s="26"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
       <c r="F23" s="40"/>
       <c r="G23" s="40"/>
-      <c r="H23" s="126"/>
+      <c r="H23" s="123"/>
       <c r="J23" s="26"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
@@ -32171,7 +32173,7 @@
       <c r="E26" s="64"/>
       <c r="F26" s="59"/>
       <c r="G26" s="40"/>
-      <c r="H26" s="147"/>
+      <c r="H26" s="151"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="C27" s="40"/>
@@ -32179,7 +32181,7 @@
       <c r="E27" s="40"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="147"/>
+      <c r="H27" s="151"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="C28" s="40"/>
@@ -32187,7 +32189,7 @@
       <c r="E28" s="40"/>
       <c r="F28" s="40"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="126"/>
+      <c r="H28" s="123"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1"/>
     <row r="30" spans="1:10" ht="15.75" customHeight="1"/>
@@ -33163,6 +33165,14 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="A7:B7"/>
@@ -33179,14 +33189,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
@@ -33199,7 +33201,7 @@
   <dimension ref="A2:I1000"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -33217,17 +33219,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="97"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -33256,11 +33258,11 @@
       <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="97"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7" t="s">
         <v>6</v>
       </c>
@@ -33281,10 +33283,10 @@
       <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="117" t="s">
+      <c r="D5" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="10" t="s">
         <v>14</v>
       </c>
@@ -33303,11 +33305,11 @@
       <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="177" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="170" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="40" t="s">
@@ -33322,11 +33324,11 @@
       <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="96" t="s">
+      <c r="A8" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="126"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="40" t="s">
         <v>197</v>
       </c>
@@ -33339,132 +33341,132 @@
       <c r="H8" s="40"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="121" t="s">
+      <c r="A9" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="97"/>
+      <c r="B9" s="100"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="97"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="174" t="s">
+      <c r="D10" s="173" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="227" t="s">
+      <c r="E10" s="178" t="s">
         <v>375</v>
       </c>
-      <c r="F10" s="174" t="s">
+      <c r="F10" s="173" t="s">
         <v>198</v>
       </c>
-      <c r="G10" s="174" t="s">
+      <c r="G10" s="173" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="174" t="s">
+      <c r="H10" s="173" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="175" t="s">
+      <c r="I10" s="171" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="112" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="178" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="174" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="179" t="s">
+      <c r="D12" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="E12" s="171" t="s">
+      <c r="E12" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="171" t="s">
+      <c r="F12" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="172" t="s">
+      <c r="G12" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="171" t="s">
+      <c r="H12" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="176" t="s">
+      <c r="I12" s="172" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="151"/>
+      <c r="G13" s="151"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="151"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="147"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="151"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="151"/>
+      <c r="H14" s="151"/>
+      <c r="I14" s="151"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="97"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="126"/>
-      <c r="I15" s="126"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="123"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="123"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+      <c r="A16" s="112" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="97"/>
+      <c r="B16" s="100"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="96" t="s">
+      <c r="A17" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="97"/>
-      <c r="C17" s="170" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="177" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="112"/>
+      <c r="D17" s="109"/>
       <c r="E17" s="73" t="s">
         <v>213</v>
       </c>
@@ -33476,62 +33478,62 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="97"/>
-      <c r="C18" s="170" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
       <c r="F18" s="66" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="96" t="s">
+      <c r="A19" s="112" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="97"/>
+      <c r="B19" s="100"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="96" t="s">
+      <c r="A20" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="97"/>
-      <c r="D20" s="173" t="s">
+      <c r="B20" s="100"/>
+      <c r="D20" s="176" t="s">
         <v>222</v>
       </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
       <c r="H20" s="76" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="96" t="s">
+      <c r="A21" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="97"/>
+      <c r="B21" s="100"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="96" t="s">
+      <c r="A22" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="97"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="D22" s="149"/>
-      <c r="E22" s="99"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="97"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="97"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="27" t="s">
         <v>235</v>
       </c>
@@ -34530,11 +34532,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="D20:G20"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I12:I15"/>
     <mergeCell ref="A8:B8"/>
@@ -34551,24 +34566,11 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="D20:G20"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="portrait"/>
